--- a/Output/USA.xlsx
+++ b/Output/USA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Desktop\JN\University_studies\Rashetka\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Documents\Документы\Git\Raschetnoe_zadaniye\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7011516D-2ED8-4741-9BD1-C91A5747B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC4DD18-4AE8-4326-AE41-CA8179FAAFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard Deviations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>lin</t>
   </si>
@@ -101,7 +101,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -109,7 +109,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -133,16 +133,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,16 +179,16 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,15 +495,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1.3634064007507021E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0.8660669167047107</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +568,7 @@
         <v>0.63430622239323842</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>3.3632681945884508</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -602,7 +602,7 @@
         <v>3.9188838607353769</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -619,21 +619,21 @@
         <v>3.9381899940176979</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4">
-        <v>1.136117060451608E-2</v>
+        <v>1.0154425440013531E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>1.066855028853617E-2</v>
+        <v>9.1422958562142088E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>6.0218132023345666E-3</v>
+        <v>5.823497494766473E-3</v>
       </c>
       <c r="E8" s="4">
-        <v>3.5751547824986411E-3</v>
+        <v>3.429843408026862E-3</v>
       </c>
     </row>
   </sheetData>
@@ -646,15 +646,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E9"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -702,24 +702,24 @@
         <v>0.91867314678575018</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>-4.2437578236951213E-15</v>
+        <v>-0.28303865920112398</v>
       </c>
       <c r="C4" s="4">
-        <v>1.763657477431481E-16</v>
+        <v>-0.18324150927193281</v>
       </c>
       <c r="D4" s="4">
-        <v>-7.9103373653640784E-13</v>
+        <v>-0.56046783490520802</v>
       </c>
       <c r="E4" s="4">
-        <v>1.263778144177047E-15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-0.87038164075682589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0.91165594836301478</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0.42725803798994388</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -770,24 +770,24 @@
         <v>0.71010693181991447</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>-0.63838137791258487</v>
+        <v>-0.6257556668358959</v>
       </c>
       <c r="C8" s="4">
-        <v>-0.60063548763493213</v>
+        <v>-0.48734543556065502</v>
       </c>
       <c r="D8" s="4">
-        <v>-0.58899092749016491</v>
+        <v>-0.49789390790358262</v>
       </c>
       <c r="E8" s="4">
-        <v>-0.56584629398373498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-0.42263826245298169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -814,15 +814,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0.22633065256446269</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0.1555909350508223</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0.42212169307638869</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.27829396516726917</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0.22256076115715409</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -938,21 +938,21 @@
         <v>1.713249901647923E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>0.86227619164145763</v>
+        <v>0.84303257402259857</v>
       </c>
       <c r="C8" s="4">
-        <v>0.8430921840585871</v>
+        <v>0.81909672417698554</v>
       </c>
       <c r="D8" s="4">
-        <v>0.61845406116183854</v>
+        <v>0.65642169898636982</v>
       </c>
       <c r="E8" s="4">
-        <v>0.18973080371374909</v>
+        <v>0.27885545326819677</v>
       </c>
     </row>
   </sheetData>
@@ -962,18 +962,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -987,37 +991,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4">
-        <v>7.20073895688486E-19</v>
+        <v>-1.140612653342616</v>
       </c>
       <c r="C2" s="4">
-        <v>1.309225264888156E-19</v>
+        <v>-0.76308664385794189</v>
       </c>
       <c r="D2" s="4">
-        <v>1.6024917242231031E-16</v>
+        <v>-33.06862684756868</v>
       </c>
       <c r="E2" s="4">
-        <v>-6.087897481729927E-18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-1.140612653342616</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-0.76308664385794189</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-33.06862684756868</v>
-      </c>
-      <c r="E3" s="4">
         <v>5.163282664544032</v>
       </c>
     </row>
